--- a/planificacio projecte 4.xlsx
+++ b/planificacio projecte 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DAW2\proyecto4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DAW2\proyecto4\Proyecto4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Planificación proyecto 4</t>
   </si>
@@ -32,18 +32,6 @@
     <t>del 13 al 20 de diciembre</t>
   </si>
   <si>
-    <t xml:space="preserve"> 13/12/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14/12/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15/12/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16/12/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 17/12/2016</t>
   </si>
   <si>
@@ -56,9 +44,6 @@
     <t xml:space="preserve"> 20/12/2016</t>
   </si>
   <si>
-    <t>Planificar estructura apliacion escritorio java</t>
-  </si>
-  <si>
     <t>crear organización github</t>
   </si>
   <si>
@@ -69,13 +54,34 @@
   </si>
   <si>
     <t>DIAS APLICACIÓN WEB</t>
+  </si>
+  <si>
+    <t>Añadir datos a la BBDD</t>
+  </si>
+  <si>
+    <t>Empezar con el diseño del login</t>
+  </si>
+  <si>
+    <t>Martes 13/12/2016</t>
+  </si>
+  <si>
+    <t>Miercoles 14/12/2016</t>
+  </si>
+  <si>
+    <t>Jueves 15/12/2016</t>
+  </si>
+  <si>
+    <t>Viernes 16/12/2016</t>
+  </si>
+  <si>
+    <t>Planificar estructura aplicacion escritorio java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,63 +198,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +542,7 @@
   <dimension ref="A4:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +554,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -543,214 +562,214 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
@@ -764,23 +783,27 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
